--- a/Results.xlsx
+++ b/Results.xlsx
@@ -2,21 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaron/Documents/2020Spring/CS4940/LearningToRank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B65ADA7-6D2C-AB4C-8B51-5D4FCD5BF965}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEC25D6-B2BD-FA4B-9021-CB3CE30202D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16520" xr2:uid="{1CE7650E-83EA-A343-91EF-6C3E8B8A7D01}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16520" activeTab="1" xr2:uid="{1CE7650E-83EA-A343-91EF-6C3E8B8A7D01}"/>
   </bookViews>
   <sheets>
-    <sheet name="MSE" sheetId="1" r:id="rId1"/>
-    <sheet name="KLD" sheetId="2" r:id="rId2"/>
-    <sheet name="MSE_with_noise" sheetId="3" r:id="rId3"/>
+    <sheet name="Hyperparameter Feedforward" sheetId="6" r:id="rId1"/>
+    <sheet name="MSE" sheetId="1" r:id="rId2"/>
+    <sheet name="KLD" sheetId="2" r:id="rId3"/>
     <sheet name="KLD_with_noise" sheetId="5" r:id="rId4"/>
+    <sheet name="MSE_with_noise" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="18">
   <si>
     <t>LISTWISE METRIC:</t>
   </si>
@@ -72,6 +73,9 @@
     <t>Feedforward</t>
   </si>
   <si>
+    <t>Light GBM</t>
+  </si>
+  <si>
     <t>Transformer</t>
   </si>
   <si>
@@ -82,12 +86,6 @@
   </si>
   <si>
     <t>kullback_leibler_divergence:</t>
-  </si>
-  <si>
-    <t>MSE:</t>
-  </si>
-  <si>
-    <t>KL DIV:</t>
   </si>
   <si>
     <t>LightGBM</t>
@@ -445,18 +443,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21EB7759-6EC3-F34C-8476-F45502E8F49A}">
-  <dimension ref="A1:L28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0AB1CE1-4CCC-774B-8624-5865CF34F38A}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" customWidth="1"/>
-    <col min="4" max="8" width="10.83203125" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21EB7759-6EC3-F34C-8476-F45502E8F49A}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.83203125" customWidth="1"/>
     <col min="17" max="17" width="10.83203125" customWidth="1"/>
   </cols>
@@ -472,13 +499,13 @@
         <v>9</v>
       </c>
       <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
       <c r="K1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -501,10 +528,10 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
         <v>0</v>
@@ -513,7 +540,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L2" t="s">
         <v>1</v>
@@ -521,37 +548,37 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>4.2855679988861001E-2</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>5.0748743116855601E-2</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3">
         <v>4.3546684086322701E-2</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3">
-        <v>0.171162635087966</v>
+        <v>4.1224665939807802E-2</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J3">
         <v>4.4992387294769197E-2</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L3">
         <v>0.159527793526649</v>
@@ -559,37 +586,37 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>4.8016536980867303E-2</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>9.9328137934207902E-2</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4">
         <v>5.1375973969697897E-2</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4">
-        <v>3.6539435386657701E-2</v>
+        <v>224.91743469238199</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J4">
         <v>0.69716185331344604</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4">
         <v>3429.80883789062</v>
@@ -614,6 +641,12 @@
       <c r="F5">
         <v>0.10673473629491401</v>
       </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>0.154365816213029</v>
+      </c>
       <c r="I5" t="s">
         <v>2</v>
       </c>
@@ -650,7 +683,7 @@
         <v>3</v>
       </c>
       <c r="H6">
-        <v>0.41371806231776598</v>
+        <v>0.20303858239213499</v>
       </c>
       <c r="I6" t="s">
         <v>3</v>
@@ -688,7 +721,7 @@
         <v>4</v>
       </c>
       <c r="H7">
-        <v>0.52536452488090302</v>
+        <v>0.37118972383000598</v>
       </c>
       <c r="I7" t="s">
         <v>4</v>
@@ -722,6 +755,12 @@
       <c r="F9" t="s">
         <v>6</v>
       </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
       <c r="I9" t="s">
         <v>0</v>
       </c>
@@ -729,7 +768,7 @@
         <v>6</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L9" t="s">
         <v>6</v>
@@ -737,31 +776,37 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>3.9769593626260702E-2</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10">
         <v>5.3134523332118898E-2</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10">
         <v>4.0982682257890701E-2</v>
       </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>2.62634772807359E-2</v>
+      </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J10">
         <v>4.3458029627799898E-2</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L10">
         <v>0.26742461323738098</v>
@@ -769,31 +814,37 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>3.9923958480358103E-2</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11">
         <v>0.11040170490741701</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11">
         <v>4.8571374267339699E-2</v>
       </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11">
+        <v>155.468658447265</v>
+      </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J11">
         <v>0.50455766916275002</v>
       </c>
       <c r="K11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L11">
         <v>5138.564453125</v>
@@ -818,6 +869,12 @@
       <c r="F12">
         <v>0.183031244016859</v>
       </c>
+      <c r="G12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>0.47645105524268699</v>
+      </c>
       <c r="I12" t="s">
         <v>2</v>
       </c>
@@ -850,6 +907,12 @@
       <c r="F13">
         <v>0.20244180553812299</v>
       </c>
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>0.16206010391436801</v>
+      </c>
       <c r="I13" t="s">
         <v>3</v>
       </c>
@@ -882,6 +945,12 @@
       <c r="F14">
         <v>0.40377318529830902</v>
       </c>
+      <c r="G14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>0.353036628338248</v>
+      </c>
       <c r="I14" t="s">
         <v>4</v>
       </c>
@@ -915,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H16" t="s">
         <v>5</v>
@@ -927,7 +996,7 @@
         <v>5</v>
       </c>
       <c r="K16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L16" t="s">
         <v>5</v>
@@ -935,37 +1004,37 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1">
         <v>0.12878239154815599</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17" s="1">
         <v>0.18427501618862099</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F17">
         <v>0.13511139154434201</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17">
         <v>0.120709426701068</v>
       </c>
       <c r="I17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J17">
         <v>0.14341625571250899</v>
       </c>
       <c r="K17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L17">
         <v>0.39585199952125499</v>
@@ -973,37 +1042,37 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1">
         <v>0.20038098096847501</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18" s="1">
         <v>0.31769856810569702</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" s="1">
         <v>0.228905513882637</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H18">
         <v>1119.49255371093</v>
       </c>
       <c r="I18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J18" s="1">
         <v>2.8702847957611</v>
       </c>
       <c r="K18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L18">
         <v>54459.76171875</v>
@@ -1142,6 +1211,12 @@
       <c r="F23" t="s">
         <v>7</v>
       </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s">
+        <v>7</v>
+      </c>
       <c r="I23" t="s">
         <v>0</v>
       </c>
@@ -1149,7 +1224,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L23" t="s">
         <v>7</v>
@@ -1157,31 +1232,37 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B24">
         <v>0.17174719274044001</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24">
         <v>0.21294732391834201</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F24">
         <v>0.17453651130199399</v>
       </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24">
+        <v>0.171162635087966</v>
+      </c>
       <c r="I24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J24">
         <v>0.17747788131236999</v>
       </c>
       <c r="K24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L24">
         <v>0.66718870401382402</v>
@@ -1189,31 +1270,37 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B25">
         <v>5.6680128909647404E-3</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D25" s="1">
         <v>7.7843099832534707E-2</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F25">
         <v>2.1731635555624899E-2</v>
       </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25">
+        <v>3.6539435386657701E-2</v>
+      </c>
       <c r="I25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J25">
         <v>0.19776192307472201</v>
       </c>
       <c r="K25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L25">
         <v>71045.2109375</v>
@@ -1238,6 +1325,12 @@
       <c r="F26">
         <v>0.16259228835703499</v>
       </c>
+      <c r="G26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>0.17877980484388301</v>
+      </c>
       <c r="I26" t="s">
         <v>2</v>
       </c>
@@ -1270,6 +1363,12 @@
       <c r="F27">
         <v>0.41777567777288199</v>
       </c>
+      <c r="G27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>0.41371806231776598</v>
+      </c>
       <c r="I27" t="s">
         <v>3</v>
       </c>
@@ -1302,6 +1401,12 @@
       <c r="F28">
         <v>0.52035710078528796</v>
       </c>
+      <c r="G28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <v>0.52536452488090302</v>
+      </c>
       <c r="I28" t="s">
         <v>4</v>
       </c>
@@ -1314,821 +1419,6 @@
       <c r="L28">
         <v>0.82325543522021505</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964D7579-3816-3149-94FA-35F8F13CD4F5}">
-  <dimension ref="A1:J41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="10.83203125" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" customWidth="1"/>
-    <col min="10" max="13" width="10.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>0.35619622468948298</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>0.36118000745773299</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>172.91447448730401</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3">
-        <v>170.20753479003901</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3">
-        <v>0.246961459517478</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>-0.30789518356323198</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>-0.30805462598800598</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4">
-        <v>-0.30805462598800598</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4">
-        <v>-3.0805475711822501</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4">
-        <v>51267.51171875</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>-6.3065869171119298</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>-6.4088195344905898</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>-3545.9634899389098</v>
-      </c>
-      <c r="G5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>-2236.4423234155101</v>
-      </c>
-      <c r="I5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>-4.0658767094129802</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>0.59682168382765499</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>0.60098249768615697</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>13.1496948643951</v>
-      </c>
-      <c r="G6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>10.443912885145901</v>
-      </c>
-      <c r="I6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6">
-        <v>0.49695217025130101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>0.74469037573825103</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>0.74763249305249002</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>3.6177023686315999</v>
-      </c>
-      <c r="G7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7">
-        <v>3.2294982290072198</v>
-      </c>
-      <c r="I7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7">
-        <v>0.66724018753597703</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>0.225790545344352</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10">
-        <v>0.22962856292724601</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10">
-        <v>53.647674560546797</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10">
-        <v>174.68060302734301</v>
-      </c>
-      <c r="I10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10">
-        <v>0.38713797926902699</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>-0.262315154075622</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11">
-        <v>-0.26254534721374501</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11">
-        <v>-0.26254534721374501</v>
-      </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11">
-        <v>-2.6254532337188698</v>
-      </c>
-      <c r="I11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11">
-        <v>67563.3515625</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>-3.50101633533574</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>-3.5775291516329299</v>
-      </c>
-      <c r="E12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>-1068.4390314320599</v>
-      </c>
-      <c r="G12" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12">
-        <v>-2405.3365699503302</v>
-      </c>
-      <c r="I12" t="s">
-        <v>2</v>
-      </c>
-      <c r="J12">
-        <v>-6.7173961417654997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>0.475174113014313</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>0.47919583816660399</v>
-      </c>
-      <c r="E13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>7.3244580070995404</v>
-      </c>
-      <c r="G13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13">
-        <v>10.9869124488255</v>
-      </c>
-      <c r="I13" t="s">
-        <v>3</v>
-      </c>
-      <c r="J13">
-        <v>0.62220412990354501</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>0.64738430865218299</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14">
-        <v>0.65087042783703197</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14">
-        <v>2.6971914252050402</v>
-      </c>
-      <c r="G14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14">
-        <v>3.3133301203822798</v>
-      </c>
-      <c r="I14" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14">
-        <v>0.76190176487049999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
-        <v>5</v>
-      </c>
-      <c r="I16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17">
-        <v>0.46982601284980702</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.43500211834907498</v>
-      </c>
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17">
-        <v>539.14788818359295</v>
-      </c>
-      <c r="G17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17">
-        <v>6.4915237426757804</v>
-      </c>
-      <c r="I17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17">
-        <v>0.39585199952125499</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="1">
-        <v>-9.2035964131355202E-2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18">
-        <v>7.3660202026367099</v>
-      </c>
-      <c r="E18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="1">
-        <v>-9.2207647860050201E-2</v>
-      </c>
-      <c r="G18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="1">
-        <v>-0.92207592725753695</v>
-      </c>
-      <c r="I18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18">
-        <v>54459.76171875</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19">
-        <v>-1.58517376964571</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>-1.3935591148191</v>
-      </c>
-      <c r="E19" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>-2965.61189985481</v>
-      </c>
-      <c r="G19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H19">
-        <v>-19.725967260229201</v>
-      </c>
-      <c r="I19" t="s">
-        <v>2</v>
-      </c>
-      <c r="J19">
-        <v>-1.17813913889805</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20">
-        <v>0.68543851687531299</v>
-      </c>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20">
-        <v>0.65954694600771402</v>
-      </c>
-      <c r="E20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>23.219560864915699</v>
-      </c>
-      <c r="G20" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20">
-        <v>1.9408011400799601</v>
-      </c>
-      <c r="I20" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20">
-        <v>0.62916770381294596</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21">
-        <v>0.73283899878646297</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21">
-        <v>0.70940324343564998</v>
-      </c>
-      <c r="E21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21">
-        <v>4.8178366294199702</v>
-      </c>
-      <c r="G21" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21">
-        <v>1.3683191344272301</v>
-      </c>
-      <c r="I21" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21">
-        <v>0.68023811258218203</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24">
-        <v>0.31233099102973899</v>
-      </c>
-      <c r="C24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24">
-        <v>0.31324267387390098</v>
-      </c>
-      <c r="E24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24">
-        <v>39.166629791259702</v>
-      </c>
-      <c r="G24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24">
-        <v>204.85887145996</v>
-      </c>
-      <c r="I24" t="s">
-        <v>13</v>
-      </c>
-      <c r="J24">
-        <v>0.54545861482620195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25">
-        <v>-0.22249281406402499</v>
-      </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25">
-        <v>-0.22266221046447701</v>
-      </c>
-      <c r="E25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25">
-        <v>-0.22266221046447701</v>
-      </c>
-      <c r="G25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25">
-        <v>-2.22662281990051</v>
-      </c>
-      <c r="I25" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25">
-        <v>6175.5986328125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26">
-        <v>-0.49853086841546601</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>-0.50290536927639296</v>
-      </c>
-      <c r="E26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>-186.917351927325</v>
-      </c>
-      <c r="G26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H26">
-        <v>-577.26634450639494</v>
-      </c>
-      <c r="I26" t="s">
-        <v>2</v>
-      </c>
-      <c r="J26">
-        <v>-1.6170527323397901</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27">
-        <v>0.55886578402061404</v>
-      </c>
-      <c r="C27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27">
-        <v>0.55968090812767302</v>
-      </c>
-      <c r="E27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>6.25832505386688</v>
-      </c>
-      <c r="G27" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27">
-        <v>10.978389447191899</v>
-      </c>
-      <c r="I27" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27">
-        <v>0.73855170084849298</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28">
-        <v>0.67921401314403695</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28">
-        <v>0.68000400461075605</v>
-      </c>
-      <c r="E28" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28">
-        <v>2.4902034156355701</v>
-      </c>
-      <c r="G28" t="s">
-        <v>4</v>
-      </c>
-      <c r="H28">
-        <v>3.31117455076238</v>
-      </c>
-      <c r="I28" t="s">
-        <v>4</v>
-      </c>
-      <c r="J28">
-        <v>0.76613181729179203</v>
-      </c>
-    </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E39" s="1"/>
-    </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E41" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2136,16 +1426,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF847C8-F7A2-724E-88A1-9E1EC57D764E}">
-  <dimension ref="A1:L28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964D7579-3816-3149-94FA-35F8F13CD4F5}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="10.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -2159,13 +1463,10 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2185,215 +1486,179 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
         <v>1</v>
       </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>4.34267222881317E-2</v>
+        <v>0.35619622468948298</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>5.02620078623294E-2</v>
+        <v>0.36118000745773299</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>4.3969560414552598E-2</v>
+        <v>172.91447448730401</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3">
-        <v>0.17282487452030099</v>
+        <v>170.20753479003901</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J3">
-        <v>4.4682919979095397E-2</v>
-      </c>
-      <c r="K3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3">
-        <v>9.2516757547855294E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.246961459517478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>4.7814454883337E-2</v>
+        <v>-0.30789518356323198</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>9.2902205884456607E-2</v>
+        <v>-0.30805462598800598</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>4.9792487174272503E-2</v>
+        <v>-0.30805462598800598</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4">
-        <v>-15.554352760314901</v>
+        <v>-3.0805475711822501</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J4">
-        <v>0.413439601659774</v>
-      </c>
-      <c r="K4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4">
-        <v>1734.72509765625</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>51267.51171875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>0.109195732830645</v>
+        <v>-6.3065869171119298</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>-3.1015843830686798E-2</v>
+        <v>-6.4088195344905898</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
       </c>
       <c r="F5">
-        <v>9.8060528368509703E-2</v>
+        <v>-3545.9634899389098</v>
       </c>
       <c r="G5" t="s">
         <v>2</v>
       </c>
       <c r="H5">
-        <v>0.17080456739226199</v>
+        <v>-2236.4423234155101</v>
       </c>
       <c r="I5" t="s">
         <v>2</v>
       </c>
       <c r="J5">
-        <v>6.5566689374077197E-2</v>
-      </c>
-      <c r="K5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>-0.89777994180812204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>-4.0658767094129802</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6">
-        <v>0.208390760959201</v>
+        <v>0.59682168382765499</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="D6">
-        <v>0.224191935200138</v>
+        <v>0.60098249768615697</v>
       </c>
       <c r="E6" t="s">
         <v>3</v>
       </c>
       <c r="F6">
-        <v>0.20968917589146699</v>
+        <v>13.1496948643951</v>
       </c>
       <c r="G6" t="s">
         <v>3</v>
       </c>
       <c r="H6">
-        <v>0.41572211213778498</v>
+        <v>10.443912885145901</v>
       </c>
       <c r="I6" t="s">
         <v>3</v>
       </c>
       <c r="J6">
-        <v>0.21343295242731</v>
-      </c>
-      <c r="K6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>0.30416567450627102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.49695217025130101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>0.37974428953017703</v>
+        <v>0.74469037573825103</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.39730578062663702</v>
+        <v>0.74763249305249002</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="F7">
-        <v>0.38123521592681697</v>
+        <v>3.6177023686315999</v>
       </c>
       <c r="G7" t="s">
         <v>4</v>
       </c>
       <c r="H7">
-        <v>0.52713726790083804</v>
+        <v>3.2294982290072198</v>
       </c>
       <c r="I7" t="s">
         <v>4</v>
       </c>
       <c r="J7">
-        <v>0.37931637304280202</v>
-      </c>
-      <c r="K7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L7">
-        <v>0.471189739165295</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.66724018753597703</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -2412,180 +1677,180 @@
       <c r="F9" t="s">
         <v>6</v>
       </c>
+      <c r="G9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
       <c r="I9" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
         <v>6</v>
       </c>
-      <c r="K9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>4.1907422244548798E-2</v>
+        <v>0.225790545344352</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>5.2935000509023597E-2</v>
+        <v>0.22962856292724601</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10">
-        <v>4.2678624391555703E-2</v>
+        <v>53.647674560546797</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>174.68060302734301</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J10">
-        <v>4.39122542738914E-2</v>
-      </c>
-      <c r="K10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10">
         <v>0.38713797926902699</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>4.7836747020483003E-2</v>
+        <v>-0.262315154075622</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>0.108349822461605</v>
+        <v>-0.26254534721374501</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11">
-        <v>4.6898581087589201E-2</v>
+        <v>-0.26254534721374501</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11">
+        <v>-2.6254532337188698</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J11">
-        <v>0.46127128601074202</v>
-      </c>
-      <c r="K11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11">
         <v>67563.3515625</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12">
-        <v>0.164597051580364</v>
+        <v>-3.50101633533574</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
       </c>
       <c r="D12">
-        <v>-5.5231958295701697E-2</v>
+        <v>-3.5775291516329299</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
       </c>
       <c r="F12">
-        <v>0.14922362135484901</v>
+        <v>-1068.4390314320599</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>-2405.3365699503302</v>
       </c>
       <c r="I12" t="s">
         <v>2</v>
       </c>
       <c r="J12">
-        <v>9.6160491543646698E-2</v>
-      </c>
-      <c r="K12" t="s">
-        <v>2</v>
-      </c>
-      <c r="L12">
         <v>-6.7173961417654997</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
       <c r="B13">
-        <v>0.20471302697879801</v>
+        <v>0.475174113014313</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
       </c>
       <c r="D13">
-        <v>0.230076067618493</v>
+        <v>0.47919583816660399</v>
       </c>
       <c r="E13" t="s">
         <v>3</v>
       </c>
       <c r="F13">
-        <v>0.206588046933155</v>
+        <v>7.3244580070995404</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>10.9869124488255</v>
       </c>
       <c r="I13" t="s">
         <v>3</v>
       </c>
       <c r="J13">
-        <v>0.21293308132760599</v>
-      </c>
-      <c r="K13" t="s">
-        <v>3</v>
-      </c>
-      <c r="L13">
         <v>0.62220412990354501</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14">
-        <v>0.40686185318978402</v>
+        <v>0.64738430865218299</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14">
-        <v>0.43374010520892498</v>
+        <v>0.65087042783703197</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
       </c>
       <c r="F14">
-        <v>0.40810102450786301</v>
+        <v>2.6971914252050402</v>
+      </c>
+      <c r="G14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>3.3133301203822798</v>
       </c>
       <c r="I14" t="s">
         <v>4</v>
       </c>
       <c r="J14">
-        <v>0.41563516427088498</v>
-      </c>
-      <c r="K14" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14">
         <v>0.76190176487049999</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -2605,215 +1870,182 @@
         <v>5</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H16" t="s">
         <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J16" t="s">
         <v>5</v>
       </c>
-      <c r="K16" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0.13447889685630701</v>
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>0.46982601284980702</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17" s="1">
-        <v>0.18411642313003501</v>
+        <v>0.43500211834907498</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F17">
-        <v>0.14000800251960699</v>
+        <v>539.14788818359295</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17">
-        <v>0.12652987241744901</v>
+        <v>6.4915237426757804</v>
       </c>
       <c r="I17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J17">
-        <v>0.147053226828575</v>
-      </c>
-      <c r="K17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L17">
-        <v>0.31417000293731601</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.39585199952125499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1">
-        <v>0.21979857981204901</v>
+        <v>-9.2035964131355202E-2</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.31590753793716397</v>
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>7.3660202026367099</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" s="1">
-        <v>0.27610430121421797</v>
+        <v>-9.2207647860050201E-2</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18">
-        <v>1104.10290527343</v>
+        <v>15</v>
+      </c>
+      <c r="H18" s="1">
+        <v>-0.92207592725753695</v>
       </c>
       <c r="I18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="1">
-        <v>2.5613143444061199</v>
-      </c>
-      <c r="K18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18">
-        <v>5048.71435546875</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="J18">
+        <v>54459.76171875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>2</v>
       </c>
       <c r="B19">
-        <v>0.26004203556460298</v>
+        <v>-1.58517376964571</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
       </c>
       <c r="D19">
-        <v>-1.3083936902361801E-2</v>
+        <v>-1.3935591148191</v>
       </c>
       <c r="E19" t="s">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>0.22961889409745501</v>
+        <v>-2965.61189985481</v>
       </c>
       <c r="G19" t="s">
         <v>2</v>
       </c>
       <c r="H19">
-        <v>0.303781180799849</v>
+        <v>-19.725967260229201</v>
       </c>
       <c r="I19" t="s">
         <v>2</v>
       </c>
       <c r="J19">
-        <v>0.17062481771493901</v>
-      </c>
-      <c r="K19" t="s">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>-0.72869146048160305</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+        <v>-1.17813913889805</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20">
-        <v>0.366713720475149</v>
+        <v>0.68543851687531299</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
       </c>
       <c r="D20">
-        <v>0.429087980580938</v>
+        <v>0.65954694600771402</v>
       </c>
       <c r="E20" t="s">
         <v>3</v>
       </c>
       <c r="F20">
-        <v>0.37417644645922599</v>
+        <v>23.219560864915699</v>
       </c>
       <c r="G20" t="s">
         <v>3</v>
       </c>
       <c r="H20">
-        <v>0.35571037715738602</v>
+        <v>1.9408011400799601</v>
       </c>
       <c r="I20" t="s">
         <v>3</v>
       </c>
       <c r="J20">
-        <v>0.388238993647879</v>
-      </c>
-      <c r="K20" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>0.56050870014417797</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.62916770381294596</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
       <c r="B21">
-        <v>0.55295110981866902</v>
+        <v>0.73283899878646297</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21">
-        <v>0.62826437398290202</v>
+        <v>0.70940324343564998</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
       </c>
       <c r="F21">
-        <v>0.55670108523892203</v>
+        <v>4.8178366294199702</v>
       </c>
       <c r="G21" t="s">
         <v>4</v>
       </c>
       <c r="H21">
-        <v>0.53603054970936903</v>
+        <v>1.3683191344272301</v>
       </c>
       <c r="I21" t="s">
         <v>4</v>
       </c>
       <c r="J21">
-        <v>0.581968987285166</v>
-      </c>
-      <c r="K21" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21">
-        <v>0.66574963500627204</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.68023811258218203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2832,178 +2064,184 @@
       <c r="F23" t="s">
         <v>7</v>
       </c>
+      <c r="G23" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>7</v>
+      </c>
       <c r="I23" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J23" t="s">
         <v>7</v>
       </c>
-      <c r="K23" t="s">
-        <v>12</v>
-      </c>
-      <c r="L23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B24">
-        <v>0.17448109388351399</v>
+        <v>0.31233099102973899</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>0.21342015266418399</v>
+        <v>0.31324267387390098</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F24">
-        <v>0.17503945529460899</v>
+        <v>39.166629791259702</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24">
+        <v>204.85887145996</v>
       </c>
       <c r="I24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J24">
-        <v>0.179877579212188</v>
-      </c>
-      <c r="K24" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24">
-        <v>0.54575383663177401</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.54545861482620195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B25">
-        <v>-2.6149577461183002E-3</v>
+        <v>-0.22249281406402499</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>8.12699720263481E-2</v>
+        <v>-0.22266221046447701</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F25">
-        <v>3.62275005318224E-3</v>
+        <v>-0.22266221046447701</v>
+      </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25">
+        <v>-2.22662281990051</v>
       </c>
       <c r="I25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J25">
-        <v>-0.25318750739097501</v>
-      </c>
-      <c r="K25" t="s">
-        <v>14</v>
-      </c>
-      <c r="L25">
-        <v>6195.7802734375</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+        <v>6175.5986328125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>2</v>
       </c>
       <c r="B26">
-        <v>0.162858071459312</v>
+        <v>-0.49853086841546601</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
       </c>
       <c r="D26">
-        <v>-2.3967309915724402E-2</v>
+        <v>-0.50290536927639296</v>
       </c>
       <c r="E26" t="s">
         <v>2</v>
       </c>
       <c r="F26">
-        <v>0.16017945376248399</v>
+        <v>-186.917351927325</v>
+      </c>
+      <c r="G26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>-577.26634450639494</v>
       </c>
       <c r="I26" t="s">
         <v>2</v>
       </c>
       <c r="J26">
-        <v>0.13757115969238701</v>
-      </c>
-      <c r="K26" t="s">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>-1.6184690983332899</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+        <v>-1.6170527323397901</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>3</v>
       </c>
       <c r="B27">
-        <v>0.41770937403215003</v>
+        <v>0.55886578402061404</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
       </c>
       <c r="D27">
-        <v>0.46197419832013997</v>
+        <v>0.55968090812767302</v>
       </c>
       <c r="E27" t="s">
         <v>3</v>
       </c>
       <c r="F27">
-        <v>0.41837711631359398</v>
+        <v>6.25832505386688</v>
+      </c>
+      <c r="G27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>10.978389447191899</v>
       </c>
       <c r="I27" t="s">
         <v>3</v>
       </c>
       <c r="J27">
-        <v>0.42397115484674402</v>
-      </c>
-      <c r="K27" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>0.73875153917387804</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.73855170084849298</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
       <c r="B28">
-        <v>0.52364218057937395</v>
+        <v>0.67921401314403695</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28">
-        <v>0.55994735385293604</v>
+        <v>0.68000400461075605</v>
       </c>
       <c r="E28" t="s">
         <v>4</v>
       </c>
       <c r="F28">
-        <v>0.52506243733186897</v>
+        <v>2.4902034156355701</v>
+      </c>
+      <c r="G28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <v>3.31117455076238</v>
       </c>
       <c r="I28" t="s">
         <v>4</v>
       </c>
       <c r="J28">
-        <v>0.52695837857583705</v>
-      </c>
-      <c r="K28" t="s">
-        <v>4</v>
-      </c>
-      <c r="L28">
-        <v>0.766929728925409</v>
-      </c>
+        <v>0.76613181729179203</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E39" s="1"/>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E41" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3012,6 +2250,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33348F0E-E01E-8B46-B2B2-57E588106872}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3019,6 +2258,18 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -3031,10 +2282,10 @@
         <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3063,7 +2314,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
         <v>1</v>
@@ -3071,31 +2322,31 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>0.35611018538474998</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>0.35902655124664301</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3">
         <v>13.0899600982666</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>106.423568725585</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J3">
         <v>0.246961459517478</v>
@@ -3103,31 +2354,31 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>-0.30787312984466497</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>-0.30805462598800598</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4">
         <v>-0.30805462598800598</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>-3.0805475711822501</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J4">
         <v>51267.51171875</v>
@@ -3255,7 +2506,7 @@
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
         <v>6</v>
@@ -3263,31 +2514,31 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>0.225849509239196</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10">
         <v>0.41814237833022999</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10">
         <v>150.42750549316401</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10">
         <v>50.622360229492102</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J10">
         <v>0.19310528039932201</v>
@@ -3295,31 +2546,31 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>-0.26236045360565102</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11">
         <v>9.0939188003540004</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11">
         <v>-0.26254534721374501</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H11">
         <v>-2.6254532337188698</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J11">
         <v>3429.26489257812</v>
@@ -3447,7 +2698,7 @@
         <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J16" t="s">
         <v>5</v>
@@ -3455,31 +2706,31 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>0.46991440653800898</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17">
         <v>18.8630352020263</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F17">
         <v>2.0660307407379102</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17">
         <v>30.3775939941406</v>
       </c>
       <c r="I17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J17">
         <v>0.39585199952125499</v>
@@ -3487,31 +2738,31 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1">
         <v>-9.2026859521865803E-2</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18">
         <v>-9.2207647860050201E-2</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" s="1">
         <v>-9.2207647860050201E-2</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H18" s="1">
         <v>-0.92207592725753695</v>
       </c>
       <c r="I18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J18">
         <v>54459.76171875</v>
@@ -3639,7 +2890,7 @@
         <v>7</v>
       </c>
       <c r="I23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J23" t="s">
         <v>7</v>
@@ -3647,31 +2898,31 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B24">
         <v>0.31226736307144098</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24">
         <v>0.68872886896133401</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F24">
         <v>152.130279541015</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24">
         <v>292.12115478515602</v>
       </c>
       <c r="I24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J24">
         <v>0.43197834491729697</v>
@@ -3679,31 +2930,31 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B25">
         <v>-0.222427308559417</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D25">
         <v>9.5785970687866193</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F25">
         <v>-0.22266221046447701</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H25">
         <v>-2.22662281990051</v>
       </c>
       <c r="I25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J25">
         <v>3828.16479492187</v>
@@ -3809,4 +3060,966 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF847C8-F7A2-724E-88A1-9E1EC57D764E}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>4.34267222881317E-2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>5.02620078623294E-2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>4.3969560414552598E-2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>4.2233802378177601E-2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3">
+        <v>4.4682919979095397E-2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3">
+        <v>9.2516757547855294E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>4.7814454883337E-2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>9.2902205884456607E-2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>4.9792487174272503E-2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>234.60101318359301</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>0.413439601659774</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4">
+        <v>1734.72509765625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0.109195732830645</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>-3.1015843830686798E-2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>9.8060528368509703E-2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>0.13366560149105899</v>
+      </c>
+      <c r="I5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>6.5566689374077197E-2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>-0.89777994180812204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0.208390760959201</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>0.224191935200138</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>0.20968917589146699</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>0.20550864307414801</v>
+      </c>
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>0.21343295242731</v>
+      </c>
+      <c r="K6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>0.30416567450627102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>0.37974428953017703</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>0.39730578062663702</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>0.38123521592681697</v>
+      </c>
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>0.37583786417093801</v>
+      </c>
+      <c r="I7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>0.37931637304280202</v>
+      </c>
+      <c r="K7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>0.471189739165295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>4.1907422244548798E-2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>5.2935000509023597E-2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>4.2678624391555703E-2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>2.7094773948192499E-2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10">
+        <v>4.39122542738914E-2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10">
+        <v>0.38713797926902699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>4.7836747020483003E-2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>0.108349822461605</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>4.6898581087589201E-2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11">
+        <v>157.206939697265</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11">
+        <v>0.46127128601074202</v>
+      </c>
+      <c r="K11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11">
+        <v>67563.3515625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>0.164597051580364</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>-5.5231958295701697E-2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.14922362135484901</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>0.45987963718752101</v>
+      </c>
+      <c r="I12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>9.6160491543646698E-2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>-6.7173961417654997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>0.20471302697879801</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>0.230076067618493</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>0.206588046933155</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>0.16460490256426899</v>
+      </c>
+      <c r="I13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>0.21293308132760599</v>
+      </c>
+      <c r="K13" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>0.62220412990354501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>0.40686185318978402</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>0.43374010520892498</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>0.40810102450786301</v>
+      </c>
+      <c r="G14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>0.356694258435373</v>
+      </c>
+      <c r="I14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>0.41563516427088498</v>
+      </c>
+      <c r="K14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>0.76190176487049999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.13447889685630701</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.18411642313003501</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17">
+        <v>0.14000800251960699</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17">
+        <v>0.12652987241744901</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17">
+        <v>0.147053226828575</v>
+      </c>
+      <c r="K17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17">
+        <v>0.31417000293731601</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.21979857981204901</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.31590753793716397</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.27610430121421797</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18">
+        <v>1104.10290527343</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2.5613143444061199</v>
+      </c>
+      <c r="K18" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18">
+        <v>5048.71435546875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>0.26004203556460298</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>-1.3083936902361801E-2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.22961889409745501</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>0.303781180799849</v>
+      </c>
+      <c r="I19" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>0.17062481771493901</v>
+      </c>
+      <c r="K19" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>-0.72869146048160305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>0.366713720475149</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>0.429087980580938</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>0.37417644645922599</v>
+      </c>
+      <c r="G20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>0.35571037715738602</v>
+      </c>
+      <c r="I20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>0.388238993647879</v>
+      </c>
+      <c r="K20" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>0.56050870014417797</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>0.55295110981866902</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>0.62826437398290202</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>0.55670108523892203</v>
+      </c>
+      <c r="G21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>0.53603054970936903</v>
+      </c>
+      <c r="I21" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>0.581968987285166</v>
+      </c>
+      <c r="K21" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21">
+        <v>0.66574963500627204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>0.17448109388351399</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24">
+        <v>0.21342015266418399</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24">
+        <v>0.17503945529460899</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24">
+        <v>0.17282487452030099</v>
+      </c>
+      <c r="I24" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24">
+        <v>0.179877579212188</v>
+      </c>
+      <c r="K24" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24">
+        <v>0.54575383663177401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <v>-2.6149577461183002E-3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>8.12699720263481E-2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25">
+        <v>3.62275005318224E-3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25">
+        <v>-15.554352760314901</v>
+      </c>
+      <c r="I25" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25">
+        <v>-0.25318750739097501</v>
+      </c>
+      <c r="K25" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25">
+        <v>6195.7802734375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>0.162858071459312</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>-2.3967309915724402E-2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.16017945376248399</v>
+      </c>
+      <c r="G26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>0.17080456739226199</v>
+      </c>
+      <c r="I26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>0.13757115969238701</v>
+      </c>
+      <c r="K26" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>-1.6184690983332899</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>0.41770937403215003</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>0.46197419832013997</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>0.41837711631359398</v>
+      </c>
+      <c r="G27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>0.41572211213778498</v>
+      </c>
+      <c r="I27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>0.42397115484674402</v>
+      </c>
+      <c r="K27" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>0.73875153917387804</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>0.52364218057937395</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>0.55994735385293604</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>0.52506243733186897</v>
+      </c>
+      <c r="G28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <v>0.52713726790083804</v>
+      </c>
+      <c r="I28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J28">
+        <v>0.52695837857583705</v>
+      </c>
+      <c r="K28" t="s">
+        <v>4</v>
+      </c>
+      <c r="L28">
+        <v>0.766929728925409</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>